--- a/data/NACA 0009.xlsx
+++ b/data/NACA 0009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6a2f87afe3a2f19d/Documents/2023 DBF/Aerofoil data 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Downloads\ADOT_OO_14_12_2023_1.15_PM\ADOT 2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41C0C67A-3AFD-4F1F-B24C-24BC07CDFA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E479ED2-12E4-4CDF-8E27-740969C4333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="4" xr2:uid="{88E5A699-2573-4EBF-94CF-769ECC956EB9}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="19680" windowHeight="16395" xr2:uid="{88E5A699-2573-4EBF-94CF-769ECC956EB9}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="20">
   <si>
     <t>Mach = 0; Re = 11335924; T.U. = 1.0; T.L. = 1.0</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>30 degrees flap deflection</t>
+  </si>
+  <si>
+    <t>Max_Thickness</t>
   </si>
 </sst>
 </file>
@@ -448,30 +451,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED1AF2A-BDF3-4D64-861B-F18836266A89}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -505,8 +508,11 @@
       <c r="K4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -540,8 +546,11 @@
       <c r="K5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-30</v>
       </c>
@@ -576,7 +585,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-29</v>
       </c>
@@ -611,7 +620,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-28</v>
       </c>
@@ -646,7 +655,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-27</v>
       </c>
@@ -681,7 +690,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-26</v>
       </c>
@@ -716,7 +725,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-25</v>
       </c>
@@ -751,7 +760,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-24</v>
       </c>
@@ -786,7 +795,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-23</v>
       </c>
@@ -821,7 +830,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-22</v>
       </c>
@@ -856,7 +865,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-21</v>
       </c>
@@ -891,7 +900,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
@@ -926,7 +935,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-19</v>
       </c>
@@ -961,7 +970,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -996,7 +1005,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-17</v>
       </c>
@@ -1031,7 +1040,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-16</v>
       </c>
@@ -1066,7 +1075,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-15</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-14</v>
       </c>
@@ -1136,7 +1145,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-13</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-12</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-11</v>
       </c>
@@ -1241,7 +1250,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-10</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9</v>
       </c>
@@ -1311,7 +1320,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8</v>
       </c>
@@ -1346,7 +1355,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-7</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-6</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-4</v>
       </c>
@@ -1486,7 +1495,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3</v>
       </c>
@@ -1521,7 +1530,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -1556,7 +1565,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -1591,7 +1600,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1626,7 +1635,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1696,7 +1705,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1731,7 +1740,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1766,7 +1775,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1801,7 +1810,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1871,7 +1880,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -1906,7 +1915,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1941,7 +1950,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1976,7 +1985,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -2011,7 +2020,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -2116,7 +2125,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -2151,7 +2160,7 @@
         <v>0.26100000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -2186,7 +2195,7 @@
         <v>0.26200000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -2221,7 +2230,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -2256,7 +2265,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -2291,7 +2300,7 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -2326,7 +2335,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -2361,7 +2370,7 @@
         <v>0.27600000000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -2396,7 +2405,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -2431,7 +2440,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -2466,7 +2475,7 @@
         <v>0.28799999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
@@ -2501,7 +2510,7 @@
         <v>0.29399999999999998</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -2536,7 +2545,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27</v>
       </c>
@@ -2571,7 +2580,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -2606,7 +2615,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>29</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -2689,9 +2698,9 @@
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -2711,7 +2720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2733,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2834,7 +2843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2935,7 +2944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-30</v>
       </c>
@@ -3036,7 +3045,7 @@
         <v>-0.33400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-29</v>
       </c>
@@ -3137,7 +3146,7 @@
         <v>-0.28899999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-28</v>
       </c>
@@ -3238,7 +3247,7 @@
         <v>-0.251</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-27</v>
       </c>
@@ -3339,7 +3348,7 @@
         <v>-0.22700000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-26</v>
       </c>
@@ -3440,7 +3449,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-25</v>
       </c>
@@ -3541,7 +3550,7 @@
         <v>-0.17199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-24</v>
       </c>
@@ -3642,7 +3651,7 @@
         <v>-0.13900000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-23</v>
       </c>
@@ -3743,7 +3752,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-22</v>
       </c>
@@ -3844,7 +3853,7 @@
         <v>-0.113</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-21</v>
       </c>
@@ -3945,7 +3954,7 @@
         <v>-9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
@@ -4046,7 +4055,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-19</v>
       </c>
@@ -4147,7 +4156,7 @@
         <v>-0.108</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>-0.16800000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-17</v>
       </c>
@@ -4349,7 +4358,7 @@
         <v>-0.25600000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-16</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-15</v>
       </c>
@@ -4551,7 +4560,7 @@
         <v>-0.49399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-14</v>
       </c>
@@ -4652,7 +4661,7 @@
         <v>-0.78800000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-13</v>
       </c>
@@ -4753,7 +4762,7 @@
         <v>-1.6259999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-12</v>
       </c>
@@ -4854,7 +4863,7 @@
         <v>-12.73</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-11</v>
       </c>
@@ -4955,7 +4964,7 @@
         <v>2.8130000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-10</v>
       </c>
@@ -5056,7 +5065,7 @@
         <v>1.405</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9</v>
       </c>
@@ -5157,7 +5166,7 @@
         <v>1.002</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8</v>
       </c>
@@ -5258,7 +5267,7 @@
         <v>0.80900000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-7</v>
       </c>
@@ -5359,7 +5368,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-6</v>
       </c>
@@ -5460,7 +5469,7 @@
         <v>0.621</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -5561,7 +5570,7 @@
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-4</v>
       </c>
@@ -5662,7 +5671,7 @@
         <v>0.52900000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3</v>
       </c>
@@ -5763,7 +5772,7 @@
         <v>0.498</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -5864,7 +5873,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -5965,7 +5974,7 @@
         <v>0.45700000000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -6066,7 +6075,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -6167,7 +6176,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -6268,7 +6277,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -6369,7 +6378,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -6470,7 +6479,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -6571,7 +6580,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -6672,7 +6681,7 @@
         <v>0.443</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -6773,7 +6782,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -6874,7 +6883,7 @@
         <v>0.433</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -6975,7 +6984,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -7076,7 +7085,7 @@
         <v>0.46100000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -7177,7 +7186,7 @@
         <v>0.47399999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -7278,7 +7287,7 @@
         <v>0.505</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -7379,7 +7388,7 @@
         <v>0.53300000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -7480,7 +7489,7 @@
         <v>0.56200000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -7581,7 +7590,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -7682,7 +7691,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -7783,7 +7792,7 @@
         <v>0.67100000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -7884,7 +7893,7 @@
         <v>0.71599999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -7985,7 +7994,7 @@
         <v>0.76200000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -8086,7 +8095,7 @@
         <v>0.81399999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -8187,7 +8196,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -8288,7 +8297,7 @@
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -8389,7 +8398,7 @@
         <v>0.97599999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -8490,7 +8499,7 @@
         <v>1.0349999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
@@ -8591,7 +8600,7 @@
         <v>1.097</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -8692,7 +8701,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27</v>
       </c>
@@ -8793,7 +8802,7 @@
         <v>1.2210000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -8894,7 +8903,7 @@
         <v>1.2789999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>29</v>
       </c>
@@ -8995,7 +9004,7 @@
         <v>1.359</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -9109,9 +9118,9 @@
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -9131,7 +9140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9142,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9153,7 +9162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -9254,7 +9263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -9355,7 +9364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-30</v>
       </c>
@@ -9456,7 +9465,7 @@
         <v>-0.38900000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-29</v>
       </c>
@@ -9557,7 +9566,7 @@
         <v>-0.35399999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-28</v>
       </c>
@@ -9658,7 +9667,7 @@
         <v>-0.32600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-27</v>
       </c>
@@ -9759,7 +9768,7 @@
         <v>-0.30399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-26</v>
       </c>
@@ -9860,7 +9869,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-25</v>
       </c>
@@ -9961,7 +9970,7 @@
         <v>-0.27400000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-24</v>
       </c>
@@ -10062,7 +10071,7 @@
         <v>-0.27400000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-23</v>
       </c>
@@ -10163,7 +10172,7 @@
         <v>-0.28299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-22</v>
       </c>
@@ -10264,7 +10273,7 @@
         <v>-0.317</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-21</v>
       </c>
@@ -10365,7 +10374,7 @@
         <v>-0.40600000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
@@ -10466,7 +10475,7 @@
         <v>-0.58699999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-19</v>
       </c>
@@ -10567,7 +10576,7 @@
         <v>-0.90400000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -10668,7 +10677,7 @@
         <v>-1.6220000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-17</v>
       </c>
@@ -10769,7 +10778,7 @@
         <v>-5.33</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-16</v>
       </c>
@@ -10870,7 +10879,7 @@
         <v>5.1260000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-15</v>
       </c>
@@ -10971,7 +10980,7 @@
         <v>1.9039999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-14</v>
       </c>
@@ -11072,7 +11081,7 @@
         <v>1.2390000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-13</v>
       </c>
@@ -11173,7 +11182,7 @@
         <v>0.94899999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-12</v>
       </c>
@@ -11274,7 +11283,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-11</v>
       </c>
@@ -11375,7 +11384,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-10</v>
       </c>
@@ -11476,7 +11485,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9</v>
       </c>
@@ -11577,7 +11586,7 @@
         <v>0.58499999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8</v>
       </c>
@@ -11678,7 +11687,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-7</v>
       </c>
@@ -11779,7 +11788,7 @@
         <v>0.51400000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-6</v>
       </c>
@@ -11880,7 +11889,7 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -11981,7 +11990,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-4</v>
       </c>
@@ -12082,7 +12091,7 @@
         <v>0.45400000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3</v>
       </c>
@@ -12183,7 +12192,7 @@
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -12284,7 +12293,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -12385,7 +12394,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -12486,7 +12495,7 @@
         <v>0.432</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -12587,7 +12596,7 @@
         <v>0.434</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -12688,7 +12697,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -12789,7 +12798,7 @@
         <v>0.45200000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -12890,7 +12899,7 @@
         <v>0.46800000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -12991,7 +13000,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -13092,7 +13101,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -13193,7 +13202,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -13294,7 +13303,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -13395,7 +13404,7 @@
         <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -13496,7 +13505,7 @@
         <v>0.54900000000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -13597,7 +13606,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -13698,7 +13707,7 @@
         <v>0.61799999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -13799,7 +13808,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -13900,7 +13909,7 @@
         <v>0.69899999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -14001,7 +14010,7 @@
         <v>0.746</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -14102,7 +14111,7 @@
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -14203,7 +14212,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -14304,7 +14313,7 @@
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -14405,7 +14414,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -14506,7 +14515,7 @@
         <v>1.0369999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -14607,7 +14616,7 @@
         <v>1.101</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -14708,7 +14717,7 @@
         <v>1.1579999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -14809,7 +14818,7 @@
         <v>1.2270000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -14910,7 +14919,7 @@
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
@@ -15011,7 +15020,7 @@
         <v>1.381</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -15112,7 +15121,7 @@
         <v>1.4419999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27</v>
       </c>
@@ -15213,7 +15222,7 @@
         <v>1.518</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -15314,7 +15323,7 @@
         <v>1.587</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>29</v>
       </c>
@@ -15415,7 +15424,7 @@
         <v>1.6639999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -15529,9 +15538,9 @@
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -15551,7 +15560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15562,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -15573,7 +15582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -15674,7 +15683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -15775,7 +15784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-30</v>
       </c>
@@ -15876,7 +15885,7 @@
         <v>-0.372</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-29</v>
       </c>
@@ -15977,7 +15986,7 @@
         <v>-0.35599999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-28</v>
       </c>
@@ -16078,7 +16087,7 @@
         <v>-0.34399999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-27</v>
       </c>
@@ -16179,7 +16188,7 @@
         <v>-0.34499999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-26</v>
       </c>
@@ -16280,7 +16289,7 @@
         <v>-0.34499999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-25</v>
       </c>
@@ -16381,7 +16390,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-24</v>
       </c>
@@ -16482,7 +16491,7 @@
         <v>-0.48299999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-23</v>
       </c>
@@ -16583,7 +16592,7 @@
         <v>-0.63600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-22</v>
       </c>
@@ -16684,7 +16693,7 @@
         <v>-1.117</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-21</v>
       </c>
@@ -16785,7 +16794,7 @@
         <v>-2.5339999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
@@ -16886,7 +16895,7 @@
         <v>76.986999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-19</v>
       </c>
@@ -16987,7 +16996,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -17088,7 +17097,7 @@
         <v>1.4850000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-17</v>
       </c>
@@ -17189,7 +17198,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-16</v>
       </c>
@@ -17290,7 +17299,7 @@
         <v>0.85599999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-15</v>
       </c>
@@ -17391,7 +17400,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-14</v>
       </c>
@@ -17492,7 +17501,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-13</v>
       </c>
@@ -17593,7 +17602,7 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-12</v>
       </c>
@@ -17694,7 +17703,7 @@
         <v>0.56299999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-11</v>
       </c>
@@ -17795,7 +17804,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-10</v>
       </c>
@@ -17896,7 +17905,7 @@
         <v>0.504</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9</v>
       </c>
@@ -17997,7 +18006,7 @@
         <v>0.48199999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8</v>
       </c>
@@ -18098,7 +18107,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-7</v>
       </c>
@@ -18199,7 +18208,7 @@
         <v>0.443</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-6</v>
       </c>
@@ -18300,7 +18309,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -18401,7 +18410,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-4</v>
       </c>
@@ -18502,7 +18511,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3</v>
       </c>
@@ -18603,7 +18612,7 @@
         <v>0.41199999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -18704,7 +18713,7 @@
         <v>0.41099999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -18805,7 +18814,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -18906,7 +18915,7 @@
         <v>0.41499999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -19007,7 +19016,7 @@
         <v>0.42499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -19108,7 +19117,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -19209,7 +19218,7 @@
         <v>0.45800000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -19310,7 +19319,7 @@
         <v>0.48099999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -19411,7 +19420,7 @@
         <v>0.46700000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -19512,7 +19521,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -19613,7 +19622,7 @@
         <v>0.49399999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -19714,7 +19723,7 @@
         <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -19815,7 +19824,7 @@
         <v>0.54700000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -19916,7 +19925,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -20017,7 +20026,7 @@
         <v>0.61099999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -20118,7 +20127,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -20219,7 +20228,7 @@
         <v>0.69299999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -20320,7 +20329,7 @@
         <v>0.74099999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -20421,7 +20430,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -20522,7 +20531,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -20623,7 +20632,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -20724,7 +20733,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -20825,7 +20834,7 @@
         <v>1.0109999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -20926,7 +20935,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -21027,7 +21036,7 @@
         <v>1.131</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -21128,7 +21137,7 @@
         <v>1.1910000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -21229,7 +21238,7 @@
         <v>1.3169999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -21330,7 +21339,7 @@
         <v>1.385</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
@@ -21431,7 +21440,7 @@
         <v>1.462</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -21532,7 +21541,7 @@
         <v>1.5329999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27</v>
       </c>
@@ -21633,7 +21642,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -21734,7 +21743,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>29</v>
       </c>
@@ -21835,7 +21844,7 @@
         <v>1.732</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -21945,13 +21954,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7C9D6D-CC04-45E1-B669-8BD0142D17F2}">
   <dimension ref="A1:AI66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -21971,7 +21980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -21982,7 +21991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -21993,7 +22002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -22094,7 +22103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -22195,7 +22204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-30</v>
       </c>
@@ -22296,7 +22305,7 @@
         <v>-0.318</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-29</v>
       </c>
@@ -22397,7 +22406,7 @@
         <v>-0.33200000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-28</v>
       </c>
@@ -22498,7 +22507,7 @@
         <v>-0.35799999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-27</v>
       </c>
@@ -22599,7 +22608,7 @@
         <v>-0.41499999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-26</v>
       </c>
@@ -22700,7 +22709,7 @@
         <v>-0.53500000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-25</v>
       </c>
@@ -22801,7 +22810,7 @@
         <v>-0.79600000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-24</v>
       </c>
@@ -22902,7 +22911,7 @@
         <v>-1.5529999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-23</v>
       </c>
@@ -23003,7 +23012,7 @@
         <v>-7.673</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-22</v>
       </c>
@@ -23104,7 +23113,7 @@
         <v>3.5139999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-21</v>
       </c>
@@ -23205,7 +23214,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-20</v>
       </c>
@@ -23306,7 +23315,7 @@
         <v>1.069</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-19</v>
       </c>
@@ -23407,7 +23416,7 @@
         <v>0.84399999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-18</v>
       </c>
@@ -23508,7 +23517,7 @@
         <v>0.71499999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-17</v>
       </c>
@@ -23609,7 +23618,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-16</v>
       </c>
@@ -23710,7 +23719,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-15</v>
       </c>
@@ -23811,7 +23820,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-14</v>
       </c>
@@ -23912,7 +23921,7 @@
         <v>0.504</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-13</v>
       </c>
@@ -24013,7 +24022,7 @@
         <v>0.47899999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-12</v>
       </c>
@@ -24114,7 +24123,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-11</v>
       </c>
@@ -24215,7 +24224,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-10</v>
       </c>
@@ -24316,7 +24325,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-9</v>
       </c>
@@ -24417,7 +24426,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-8</v>
       </c>
@@ -24518,7 +24527,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-7</v>
       </c>
@@ -24619,7 +24628,7 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-6</v>
       </c>
@@ -24720,7 +24729,7 @@
         <v>0.38900000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-5</v>
       </c>
@@ -24821,7 +24830,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-4</v>
       </c>
@@ -24922,7 +24931,7 @@
         <v>0.38700000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3</v>
       </c>
@@ -25023,7 +25032,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -25124,7 +25133,7 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-1</v>
       </c>
@@ -25225,7 +25234,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -25326,7 +25335,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -25427,7 +25436,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -25528,7 +25537,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -25629,7 +25638,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -25730,7 +25739,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -25831,7 +25840,7 @@
         <v>0.47099999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -25932,7 +25941,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -26033,7 +26042,7 @@
         <v>0.51700000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -26134,7 +26143,7 @@
         <v>0.54100000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -26235,7 +26244,7 @@
         <v>0.57199999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -26336,7 +26345,7 @@
         <v>0.60599999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -26437,7 +26446,7 @@
         <v>0.64200000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -26538,7 +26547,7 @@
         <v>0.68100000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -26639,7 +26648,7 @@
         <v>0.72399999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -26740,7 +26749,7 @@
         <v>0.77400000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -26841,7 +26850,7 @@
         <v>0.82199999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -26942,7 +26951,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -27043,7 +27052,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -27144,7 +27153,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -27245,7 +27254,7 @@
         <v>1.0189999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -27346,7 +27355,7 @@
         <v>1.0620000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -27447,7 +27456,7 @@
         <v>1.119</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -27548,7 +27557,7 @@
         <v>1.1679999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>23</v>
       </c>
@@ -27649,7 +27658,7 @@
         <v>1.2190000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -27750,7 +27759,7 @@
         <v>1.272</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
@@ -27851,7 +27860,7 @@
         <v>1.3240000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>26</v>
       </c>
@@ -27952,7 +27961,7 @@
         <v>1.371</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27</v>
       </c>
@@ -28053,7 +28062,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -28154,7 +28163,7 @@
         <v>1.4630000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>29</v>
       </c>
@@ -28255,7 +28264,7 @@
         <v>1.5029999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>30</v>
       </c>
@@ -28362,6 +28371,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7B4AA51A86DF64F8EEA3B7ACC01600E" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37503d37778738f9b8e5b50734e360b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5f869584-441e-42c5-8d1e-76b11125194b" xmlns:ns3="9df0515c-157b-471a-a0ef-89af1efb2dd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f630545ba42abbb2436d67874f362a0" ns2:_="" ns3:_="">
     <xsd:import namespace="5f869584-441e-42c5-8d1e-76b11125194b"/>
@@ -28584,15 +28602,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -28605,13 +28614,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8274004-B760-49CC-97FB-A3B4BF1C197D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEEC4A2-1410-40E0-9433-FD49975263FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEEC4A2-1410-40E0-9433-FD49975263FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8274004-B760-49CC-97FB-A3B4BF1C197D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5f869584-441e-42c5-8d1e-76b11125194b"/>
+    <ds:schemaRef ds:uri="9df0515c-157b-471a-a0ef-89af1efb2dd1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1AD957D-1E0D-4D57-9B39-2633274B2E60}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1AD957D-1E0D-4D57-9B39-2633274B2E60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9df0515c-157b-471a-a0ef-89af1efb2dd1"/>
+    <ds:schemaRef ds:uri="5f869584-441e-42c5-8d1e-76b11125194b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>